--- a/assignment1/report/output_anal/Book1.xlsx
+++ b/assignment1/report/output_anal/Book1.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>SIZE</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>NEON</t>
+  </si>
+  <si>
+    <t>SPEEDUP(DSP+NEON)</t>
+  </si>
+  <si>
+    <t>SPEEDUP(NEON)</t>
   </si>
 </sst>
 </file>
@@ -2647,11 +2653,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="465185288"/>
-        <c:axId val="465184896"/>
+        <c:axId val="315184024"/>
+        <c:axId val="315184416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="465185288"/>
+        <c:axId val="315184024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="128"/>
@@ -2764,13 +2770,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465184896"/>
+        <c:crossAx val="315184416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="465184896"/>
+        <c:axId val="315184416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -2875,7 +2881,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465185288"/>
+        <c:crossAx val="315184024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2962,7 +2968,2120 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speed-up</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> analysis</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SPEEDUP(DSP+NEON)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>1.1671686746987951E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1676082862523541E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1299435028248588E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1428571428571429E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1676082862523541E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1163125675189052E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1676082862523541E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1299435028248588E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.221412964311726E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2975517890772131E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3505154639175257E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3129276197335251E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5437616387337058E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.3462771642322762E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.5353241077931534E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.6332842415316636E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.6312108943687891E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5717407137654773E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.9837997054491886E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.6701476413395739E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.10014566642388931</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.13323625773571168</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.13034188034188035</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.11839323467230445</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.15247595297470609</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.148884239888424</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.1828752642706131</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.18252290345313602</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.21296619031021261</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.21529245947850598</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.24215246636771298</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.24206896551724139</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.26998689384010482</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.29146757679180885</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.33006756756756755</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.32972972972972975</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.37404832836808999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.37404832836808999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.39264931087289434</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.40744274809160302</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.48001310615989518</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.47534068786502276</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.53339575530586769</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.56315622017181044</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.59032761310452408</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.63203463203463206</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.64551683050342556</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.65103697024346252</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.73421527360192429</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.7206967818128136</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.76897227667320078</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.77598870056497171</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.87062146892655368</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.87062146892655368</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.96585230427540258</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.95813825392453877</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.0161117078410311</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.0322322855620671</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.0934220629639111</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.0956749672346002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.1603301650825413</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.2169164338328677</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.348560079443893</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.328117359413203</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.4637853241510328</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.429395477618828</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.6737160120845922</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.6782120290194245</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.8345762711864408</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7436394997843898</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.9291754756871033</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.9936639720340834</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.1265035255080877</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.1803001479602622</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.3151932025085982</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.2783955520254171</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.5240821160679041</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.4880046811000587</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.6490303144417249</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.8723830329510287</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.8830098864884657</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.0701381509032943</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.0480112142982301</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.3120665742024964</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.24708664077014</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.4902350215160545</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.4952002648129756</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.6716795947443406</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.6541673231447929</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.8969230769230765</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.8736793752870926</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.0907473309608546</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.0444704505558802</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.2608633708505481</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.2471272520924952</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.4168487165483334</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.4474910885659442</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.6401751359957544</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.621168076109937</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.8362775217613923</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5.9420546558704457</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.9922394678492239</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4.9998768169499872</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5.1707432913797193</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.1149870801033597</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5.2882011605415862</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.2546604903400738</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5.4346301369863017</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5.4934130410716264</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5.5744186046511626</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5.636603097671478</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5.7789727610815156</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5.7284883127488007</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5.8561306829364295</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5.8585063465512146</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>6.0171906163928197</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3.4634625887493176</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6.1006864988558354</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6.089548151528982</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6.1933409671452484</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6.2479243949832197</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6.2885736002026853</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>6.3081494057724967</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6.4233390818756675</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6.4012910606308218</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SPEEDUP(NEON)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>1.0333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49180327868852458</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.967741935483871</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4918032786885247</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5081967213114753</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6703296703296704</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2540983606557377</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.83606557377049184</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2540983606557377</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.326086956521739</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1639344262295082</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5027322404371586</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2262773722627738</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2738095238095237</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5446428571428572</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.6983606557377051</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0032786885245901</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.8238805970149252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.4385245901639343</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.536105032822757</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.6885245901639343</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.5990180032733223</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.8524590163934425</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.5416098226466575</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.6802096985583224</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.6788990825688073</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.6553672316384183</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.9225721784776904</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.6480231436837032</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.7576961271102287</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.7698783910196445</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.0297914597815296</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.7747747747747744</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.7314148681055157</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.9520383693045567</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.9512390087929656</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.7303087586641461</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.8374581939799328</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.9048207663782446</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.8701456310679612</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.9000546149645003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.9317046085508052</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.35627530364372467</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.0161290322580645</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.0587951807228917</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.9289340101522843</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.1718164794007491</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.2749287749287754</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.0701219512195124</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.0701219512195124</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.2957169459962756</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.3600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.3597640891218874</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.3496068152031455</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.6331495296788843</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.7037780006686725</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.4715601300108343</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.5769556622423044</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.9473986777809715</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.964932451853981</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.7987282954267547</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.8053789731051344</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.173740382228841</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.0729944591664662</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.9550514597773576</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.9741650913673596</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.3793103448275867</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.4165762638316339</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.2267311988086376</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.3336527405136067</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.6188672096988066</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.5795941165518519</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.4378871861754159</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.426022063595068</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.6716795947443406</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.7996395806028835</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.656705644579183</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.6846781240897175</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.0174748798602007</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.0628949301983841</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.8890767230169048</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.8470830120791568</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.1897422613651081</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.2349869451697124</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.9535512203361205</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.0637927027655127</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.4054337686567164</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5.2347302719572006</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.1498054474708175</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4.3042417815482503</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4.5442971929458418</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4.5884522178906337</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4.4017425892603468</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4.4302724328443519</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4.7099439642891063</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4.7133358662613976</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.5002560163850491</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4.6007051943584454</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4.9061353357795037</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4.8268684957426675</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4.6539454133103932</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4.5160800970873787</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4.9546414327050909</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4.9125416376171662</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.716914366595895</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>4.7521726741701098</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5.008761931899131</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5.0280048333214866</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4.9695008008542443</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>4.9795617503183012</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>5.23050688778922</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>5.2386652400695466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="457387504"/>
+        <c:axId val="457387112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="457387504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>SIZE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457387112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="457387112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speed</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>-up</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457387504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3481,20 +5600,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>124778</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>134302</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>404648</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>414172</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3508,6 +6143,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>433388</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3783,10 +6448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3794,9 +6459,11 @@
     <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3809,8 +6476,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3823,8 +6496,16 @@
       <c r="D2">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <f>C2/B2</f>
+        <v>1.1671686746987951E-2</v>
+      </c>
+      <c r="F2">
+        <f>C2/D2</f>
+        <v>1.0333333333333334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3837,8 +6518,15 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">C3/B3</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3851,8 +6539,16 @@
       <c r="D4">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.1676082862523541E-2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F3:F66" si="1">C4/D4</f>
+        <v>1.0333333333333334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3865,8 +6561,15 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3879,8 +6582,15 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.1299435028248588E-2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3893,8 +6603,15 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.1428571428571429E-2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3907,8 +6624,16 @@
       <c r="D8">
         <v>3.1E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1.1676082862523541E-2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3921,8 +6646,15 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1.1163125675189052E-2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3935,8 +6667,16 @@
       <c r="D10">
         <v>3.1E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1.1676082862523541E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3949,8 +6689,16 @@
       <c r="D11">
         <v>6.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1.1299435028248588E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.49180327868852458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3963,8 +6711,16 @@
       <c r="D12">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>2.221412964311726E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>2.0333333333333332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3977,8 +6733,16 @@
       <c r="D13">
         <v>3.1E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>2.2975517890772131E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>1.967741935483871</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3991,8 +6755,16 @@
       <c r="D14">
         <v>6.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>3.3505154639175257E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>1.4918032786885247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4005,8 +6777,16 @@
       <c r="D15">
         <v>6.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>3.3129276197335251E-2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>1.5081967213114753</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4019,8 +6799,16 @@
       <c r="D16">
         <v>6.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>4.5437616387337058E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4033,8 +6821,16 @@
       <c r="D17">
         <v>6.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>4.3462771642322762E-2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4047,8 +6843,16 @@
       <c r="D18">
         <v>9.0999999999999998E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>5.5353241077931534E-2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>1.6703296703296704</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4061,8 +6865,16 @@
       <c r="D19">
         <v>0.122</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>5.6332842415316636E-2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>1.2540983606557377</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4075,8 +6887,16 @@
       <c r="D20">
         <v>0.183</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>5.6312108943687891E-2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0.83606557377049184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4089,8 +6909,16 @@
       <c r="D21">
         <v>0.122</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>5.5717407137654773E-2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>1.2540983606557377</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4103,8 +6931,16 @@
       <c r="D22">
         <v>0.184</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>8.9837997054491886E-2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>1.326086956521739</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4117,8 +6953,16 @@
       <c r="D23">
         <v>0.183</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>7.6701476413395739E-2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>1.1639344262295082</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4131,8 +6975,16 @@
       <c r="D24">
         <v>0.183</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0.10014566642388931</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>1.5027322404371586</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4145,8 +6997,16 @@
       <c r="D25">
         <v>0.183</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0.13323625773571168</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4159,8 +7019,16 @@
       <c r="D26">
         <v>0.24399999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0.13034188034188035</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4173,8 +7041,16 @@
       <c r="D27">
         <v>0.27400000000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0.11839323467230445</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>1.2262773722627738</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4187,8 +7063,16 @@
       <c r="D28">
         <v>0.33600000000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0.15247595297470609</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>1.2738095238095237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4201,8 +7085,16 @@
       <c r="D29">
         <v>0.24399999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0.148884239888424</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4215,8 +7107,16 @@
       <c r="D30">
         <v>0.33600000000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0.1828752642706131</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>1.5446428571428572</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4229,8 +7129,16 @@
       <c r="D31">
         <v>0.30499999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0.18252290345313602</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>1.6983606557377051</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4243,8 +7151,16 @@
       <c r="D32">
         <v>0.30499999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>0.21296619031021261</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>2.0032786885245901</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4257,8 +7173,16 @@
       <c r="D33">
         <v>0.33500000000000002</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>0.21529245947850598</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>1.8238805970149252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4271,8 +7195,16 @@
       <c r="D34">
         <v>0.48799999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>0.24215246636771298</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>1.4385245901639343</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4285,8 +7217,16 @@
       <c r="D35">
         <v>0.45700000000000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>0.24206896551724139</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>1.536105032822757</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4299,8 +7239,16 @@
       <c r="D36">
         <v>0.48799999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>0.26998689384010482</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>1.6885245901639343</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4313,8 +7261,16 @@
       <c r="D37">
         <v>0.48799999999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>0.29146757679180885</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4327,8 +7283,16 @@
       <c r="D38">
         <v>0.61099999999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>0.33006756756756755</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>1.5990180032733223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4341,8 +7305,16 @@
       <c r="D39">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>0.32972972972972975</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4355,8 +7327,16 @@
       <c r="D40">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>0.37404832836808999</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>1.8524590163934425</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4369,8 +7349,16 @@
       <c r="D41">
         <v>0.73299999999999998</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>0.37404832836808999</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>1.5416098226466575</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4383,8 +7371,16 @@
       <c r="D42">
         <v>0.76300000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>0.39264931087289434</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>1.6802096985583224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4397,8 +7393,16 @@
       <c r="D43">
         <v>0.76300000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>0.40744274809160302</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>1.6788990825688073</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4411,8 +7415,16 @@
       <c r="D44">
         <v>0.88500000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>0.48001310615989518</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>1.6553672316384183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4425,8 +7437,16 @@
       <c r="D45">
         <v>0.76200000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>0.47534068786502276</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>1.9225721784776904</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4439,8 +7459,16 @@
       <c r="D46">
         <v>1.0369999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>0.53339575530586769</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>1.6480231436837032</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4453,8 +7481,16 @@
       <c r="D47">
         <v>1.0069999999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>0.56315622017181044</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>1.7576961271102287</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4467,8 +7503,16 @@
       <c r="D48">
         <v>1.069</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>0.59032761310452408</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>1.7698783910196445</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4481,8 +7525,16 @@
       <c r="D49">
         <v>1.0069999999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>0.63203463203463206</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>2.0297914597815296</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4495,8 +7547,16 @@
       <c r="D50">
         <v>1.2210000000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>0.64551683050342556</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>1.7747747747747744</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4509,8 +7569,16 @@
       <c r="D51">
         <v>1.2509999999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>0.65103697024346252</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>1.7314148681055157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4523,8 +7591,16 @@
       <c r="D52">
         <v>1.2509999999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>0.73421527360192429</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>1.9520383693045567</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4537,8 +7613,16 @@
       <c r="D53">
         <v>1.2509999999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>0.7206967818128136</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>1.9512390087929656</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4551,8 +7635,16 @@
       <c r="D54">
         <v>1.587</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>0.76897227667320078</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>1.7303087586641461</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4565,8 +7657,16 @@
       <c r="D55">
         <v>1.4950000000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>0.77598870056497171</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>1.8374581939799328</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4579,8 +7679,16 @@
       <c r="D56">
         <v>1.6180000000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>0.87062146892655368</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>1.9048207663782446</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4593,8 +7701,16 @@
       <c r="D57">
         <v>1.6479999999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>0.87062146892655368</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>1.8701456310679612</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4607,8 +7723,16 @@
       <c r="D58">
         <v>1.831</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>0.96585230427540258</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>1.9000546149645003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4621,8 +7745,16 @@
       <c r="D59">
         <v>1.8009999999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>0.95813825392453877</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>1.9317046085508052</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4635,8 +7767,16 @@
       <c r="D60">
         <v>10.621</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>1.0161117078410311</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>0.35627530364372467</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4649,8 +7789,16 @@
       <c r="D61">
         <v>1.9219999999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>1.0322322855620671</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>2.0161290322580645</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4663,8 +7811,16 @@
       <c r="D62">
         <v>2.0750000000000002</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>1.0934220629639111</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>2.0587951807228917</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4677,8 +7833,16 @@
       <c r="D63">
         <v>2.1669999999999998</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>1.0956749672346002</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>1.9289340101522843</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4691,8 +7855,16 @@
       <c r="D64">
         <v>2.1360000000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>1.1603301650825413</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>2.1718164794007491</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4705,8 +7877,16 @@
       <c r="D65">
         <v>2.1059999999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>1.2169164338328677</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>2.2749287749287754</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4719,8 +7899,16 @@
       <c r="D66">
         <v>2.6240000000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>1.348560079443893</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>2.0701219512195124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4733,8 +7921,16 @@
       <c r="D67">
         <v>2.6240000000000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <f t="shared" ref="E67:E129" si="2">C67/B67</f>
+        <v>1.328117359413203</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F129" si="3">C67/D67</f>
+        <v>2.0701219512195124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4747,8 +7943,16 @@
       <c r="D68">
         <v>2.6850000000000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68">
+        <f t="shared" si="2"/>
+        <v>1.4637853241510328</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="3"/>
+        <v>2.2957169459962756</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4761,8 +7965,16 @@
       <c r="D69">
         <v>2.625</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69">
+        <f t="shared" si="2"/>
+        <v>1.429395477618828</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="3"/>
+        <v>2.3600000000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4775,8 +7987,16 @@
       <c r="D70">
         <v>3.052</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70">
+        <f t="shared" si="2"/>
+        <v>1.6737160120845922</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="3"/>
+        <v>2.3597640891218874</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4789,8 +8009,16 @@
       <c r="D71">
         <v>3.052</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71">
+        <f t="shared" si="2"/>
+        <v>1.6782120290194245</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="3"/>
+        <v>2.3496068152031455</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4803,8 +8031,16 @@
       <c r="D72">
         <v>3.0830000000000002</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72">
+        <f t="shared" si="2"/>
+        <v>1.8345762711864408</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="3"/>
+        <v>2.6331495296788843</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4817,8 +8053,16 @@
       <c r="D73">
         <v>2.9910000000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73">
+        <f t="shared" si="2"/>
+        <v>1.7436394997843898</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="3"/>
+        <v>2.7037780006686725</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4831,8 +8075,16 @@
       <c r="D74">
         <v>3.6920000000000002</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74">
+        <f t="shared" si="2"/>
+        <v>1.9291754756871033</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="3"/>
+        <v>2.4715601300108343</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4845,8 +8097,16 @@
       <c r="D75">
         <v>3.5409999999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75">
+        <f t="shared" si="2"/>
+        <v>1.9936639720340834</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="3"/>
+        <v>2.5769556622423044</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4859,8 +8119,16 @@
       <c r="D76">
         <v>3.4790000000000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76">
+        <f t="shared" si="2"/>
+        <v>2.1265035255080877</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="3"/>
+        <v>2.9473986777809715</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4873,8 +8141,16 @@
       <c r="D77">
         <v>3.4790000000000001</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E77">
+        <f t="shared" si="2"/>
+        <v>2.1803001479602622</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="3"/>
+        <v>2.964932451853981</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4887,8 +8163,16 @@
       <c r="D78">
         <v>4.0890000000000004</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78">
+        <f t="shared" si="2"/>
+        <v>2.3151932025085982</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="3"/>
+        <v>2.7987282954267547</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4901,8 +8185,16 @@
       <c r="D79">
         <v>4.09</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79">
+        <f t="shared" si="2"/>
+        <v>2.2783955520254171</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="3"/>
+        <v>2.8053789731051344</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4915,8 +8207,16 @@
       <c r="D80">
         <v>4.0289999999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80">
+        <f t="shared" si="2"/>
+        <v>2.5240821160679041</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="3"/>
+        <v>3.173740382228841</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4929,8 +8229,16 @@
       <c r="D81">
         <v>4.1509999999999998</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E81">
+        <f t="shared" si="2"/>
+        <v>2.4880046811000587</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="3"/>
+        <v>3.0729944591664662</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4943,8 +8251,16 @@
       <c r="D82">
         <v>4.7610000000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E82">
+        <f t="shared" si="2"/>
+        <v>2.6490303144417249</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="3"/>
+        <v>2.9550514597773576</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4957,8 +8273,16 @@
       <c r="D83">
         <v>4.7610000000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E83">
+        <f t="shared" si="2"/>
+        <v>2.666666666666667</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="3"/>
+        <v>2.9741650913673596</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4971,8 +8295,16 @@
       <c r="D84">
         <v>4.6689999999999996</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E84">
+        <f t="shared" si="2"/>
+        <v>2.8723830329510287</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="3"/>
+        <v>3.3793103448275867</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4985,8 +8317,16 @@
       <c r="D85">
         <v>4.609</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E85">
+        <f t="shared" si="2"/>
+        <v>2.8830098864884657</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="3"/>
+        <v>3.4165762638316339</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4999,8 +8339,16 @@
       <c r="D86">
         <v>5.3719999999999999</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E86">
+        <f t="shared" si="2"/>
+        <v>3.0701381509032943</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="3"/>
+        <v>3.2267311988086376</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5013,8 +8361,16 @@
       <c r="D87">
         <v>5.218</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E87">
+        <f t="shared" si="2"/>
+        <v>3.0480112142982301</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="3"/>
+        <v>3.3336527405136067</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5027,8 +8383,16 @@
       <c r="D88">
         <v>5.2789999999999999</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E88">
+        <f t="shared" si="2"/>
+        <v>3.3120665742024964</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="3"/>
+        <v>3.6188672096988066</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5041,8 +8405,16 @@
       <c r="D89">
         <v>5.3710000000000004</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E89">
+        <f t="shared" si="2"/>
+        <v>3.24708664077014</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="3"/>
+        <v>3.5795941165518519</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5055,8 +8427,16 @@
       <c r="D90">
         <v>6.1340000000000003</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90">
+        <f t="shared" si="2"/>
+        <v>3.4902350215160545</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="3"/>
+        <v>3.4378871861754159</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5069,8 +8449,16 @@
       <c r="D91">
         <v>6.1639999999999997</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E91">
+        <f t="shared" si="2"/>
+        <v>3.4952002648129756</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="3"/>
+        <v>3.426022063595068</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5083,8 +8471,16 @@
       <c r="D92">
         <v>6.3170000000000002</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92">
+        <f t="shared" si="2"/>
+        <v>3.6716795947443406</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="3"/>
+        <v>3.6716795947443406</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5097,8 +8493,16 @@
       <c r="D93">
         <v>6.1040000000000001</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E93">
+        <f t="shared" si="2"/>
+        <v>3.6541673231447929</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="3"/>
+        <v>3.7996395806028835</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5111,8 +8515,16 @@
       <c r="D94">
         <v>6.9269999999999996</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E94">
+        <f t="shared" si="2"/>
+        <v>3.8969230769230765</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="3"/>
+        <v>3.656705644579183</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5125,8 +8537,16 @@
       <c r="D95">
         <v>6.8659999999999997</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E95">
+        <f t="shared" si="2"/>
+        <v>3.8736793752870926</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="3"/>
+        <v>3.6846781240897175</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5139,8 +8559,16 @@
       <c r="D96">
         <v>6.867</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96">
+        <f t="shared" si="2"/>
+        <v>4.0907473309608546</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="3"/>
+        <v>4.0174748798602007</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5153,8 +8581,16 @@
       <c r="D97">
         <v>6.8049999999999997</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E97">
+        <f t="shared" si="2"/>
+        <v>4.0444704505558802</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="3"/>
+        <v>4.0628949301983841</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5167,8 +8603,16 @@
       <c r="D98">
         <v>7.69</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E98">
+        <f t="shared" si="2"/>
+        <v>4.2608633708505481</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="3"/>
+        <v>3.8890767230169048</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5181,8 +8625,16 @@
       <c r="D99">
         <v>7.782</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E99">
+        <f t="shared" si="2"/>
+        <v>4.2471272520924952</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="3"/>
+        <v>3.8470830120791568</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5195,8 +8647,16 @@
       <c r="D100">
         <v>7.7210000000000001</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E100">
+        <f t="shared" si="2"/>
+        <v>4.4168487165483334</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="3"/>
+        <v>4.1897422613651081</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5209,8 +8669,16 @@
       <c r="D101">
         <v>7.66</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E101">
+        <f t="shared" si="2"/>
+        <v>4.4474910885659442</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="3"/>
+        <v>4.2349869451697124</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5223,8 +8691,16 @@
       <c r="D102">
         <v>11.840999999999999</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E102">
+        <f t="shared" si="2"/>
+        <v>4.6401751359957544</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="3"/>
+        <v>2.9535512203361205</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5237,8 +8713,16 @@
       <c r="D103">
         <v>8.6059999999999999</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E103">
+        <f t="shared" si="2"/>
+        <v>4.621168076109937</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="3"/>
+        <v>4.0637927027655127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5251,8 +8735,16 @@
       <c r="D104">
         <v>8.5760000000000005</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E104">
+        <f t="shared" si="2"/>
+        <v>4.8362775217613923</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="3"/>
+        <v>4.4054337686567164</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5265,8 +8757,16 @@
       <c r="D105">
         <v>8.9719999999999995</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E105">
+        <f t="shared" si="2"/>
+        <v>5.9420546558704457</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="3"/>
+        <v>5.2347302719572006</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5279,8 +8779,16 @@
       <c r="D106">
         <v>9.766</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E106">
+        <f t="shared" si="2"/>
+        <v>4.9922394678492239</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="3"/>
+        <v>4.1498054474708175</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5293,8 +8801,16 @@
       <c r="D107">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E107">
+        <f t="shared" si="2"/>
+        <v>4.9998768169499872</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="3"/>
+        <v>4.3042417815482503</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5307,8 +8823,16 @@
       <c r="D108">
         <v>9.5830000000000002</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E108">
+        <f t="shared" si="2"/>
+        <v>5.1707432913797193</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="3"/>
+        <v>4.5442971929458418</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5321,8 +8845,16 @@
       <c r="D109">
         <v>9.4909999999999997</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E109">
+        <f t="shared" si="2"/>
+        <v>5.1149870801033597</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="3"/>
+        <v>4.5884522178906337</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5335,8 +8867,16 @@
       <c r="D110">
         <v>10.558999999999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E110">
+        <f t="shared" si="2"/>
+        <v>5.2882011605415862</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="3"/>
+        <v>4.4017425892603468</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5349,8 +8889,16 @@
       <c r="D111">
         <v>10.497999999999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E111">
+        <f t="shared" si="2"/>
+        <v>5.2546604903400738</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="3"/>
+        <v>4.4302724328443519</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5363,8 +8911,16 @@
       <c r="D112">
         <v>10.529</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E112">
+        <f t="shared" si="2"/>
+        <v>5.4346301369863017</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="3"/>
+        <v>4.7099439642891063</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5377,8 +8933,16 @@
       <c r="D113">
         <v>10.528</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E113">
+        <f t="shared" si="2"/>
+        <v>5.4934130410716264</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="3"/>
+        <v>4.7133358662613976</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5391,8 +8955,16 @@
       <c r="D114">
         <v>11.718</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E114">
+        <f t="shared" si="2"/>
+        <v>5.5744186046511626</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="3"/>
+        <v>4.5002560163850491</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5405,8 +8977,16 @@
       <c r="D115">
         <v>11.628</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E115">
+        <f t="shared" si="2"/>
+        <v>5.636603097671478</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="3"/>
+        <v>4.6007051943584454</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5419,8 +8999,16 @@
       <c r="D116">
         <v>11.718999999999999</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E116">
+        <f t="shared" si="2"/>
+        <v>5.7789727610815156</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="3"/>
+        <v>4.9061353357795037</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5433,8 +9021,16 @@
       <c r="D117">
         <v>11.627000000000001</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E117">
+        <f t="shared" si="2"/>
+        <v>5.7284883127488007</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="3"/>
+        <v>4.8268684957426675</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5447,8 +9043,16 @@
       <c r="D118">
         <v>12.787000000000001</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E118">
+        <f t="shared" si="2"/>
+        <v>5.8561306829364295</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="3"/>
+        <v>4.6539454133103932</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5461,8 +9065,16 @@
       <c r="D119">
         <v>13.183999999999999</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E119">
+        <f t="shared" si="2"/>
+        <v>5.8585063465512146</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="3"/>
+        <v>4.5160800970873787</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5475,8 +9087,16 @@
       <c r="D120">
         <v>12.787000000000001</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E120">
+        <f t="shared" si="2"/>
+        <v>6.0171906163928197</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="3"/>
+        <v>4.9546414327050909</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5489,8 +9109,16 @@
       <c r="D121">
         <v>12.909000000000001</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E121">
+        <f t="shared" si="2"/>
+        <v>3.4634625887493176</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="3"/>
+        <v>4.9125416376171662</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5503,8 +9131,16 @@
       <c r="D122">
         <v>14.13</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E122">
+        <f t="shared" si="2"/>
+        <v>6.1006864988558354</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="3"/>
+        <v>4.716914366595895</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5517,8 +9153,16 @@
       <c r="D123">
         <v>14.038</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E123">
+        <f t="shared" si="2"/>
+        <v>6.089548151528982</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="3"/>
+        <v>4.7521726741701098</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5531,8 +9175,16 @@
       <c r="D124">
         <v>14.038</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E124">
+        <f t="shared" si="2"/>
+        <v>6.1933409671452484</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="3"/>
+        <v>5.008761931899131</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5545,8 +9197,16 @@
       <c r="D125">
         <v>14.069000000000001</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E125">
+        <f t="shared" si="2"/>
+        <v>6.2479243949832197</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="3"/>
+        <v>5.0280048333214866</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5559,8 +9219,16 @@
       <c r="D126">
         <v>14.984</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E126">
+        <f t="shared" si="2"/>
+        <v>6.2885736002026853</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="3"/>
+        <v>4.9695008008542443</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5573,8 +9241,16 @@
       <c r="D127">
         <v>14.923</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E127">
+        <f t="shared" si="2"/>
+        <v>6.3081494057724967</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="3"/>
+        <v>4.9795617503183012</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5587,8 +9263,16 @@
       <c r="D128">
         <v>14.954000000000001</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E128">
+        <f t="shared" si="2"/>
+        <v>6.4233390818756675</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="3"/>
+        <v>5.23050688778922</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5600,6 +9284,14 @@
       </c>
       <c r="D129">
         <v>14.954000000000001</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="2"/>
+        <v>6.4012910606308218</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="3"/>
+        <v>5.2386652400695466</v>
       </c>
     </row>
   </sheetData>
